--- a/data/pca/factorExposure/factorExposure_2010-02-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-09.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.006676605411294387</v>
+        <v>0.01699202475287335</v>
       </c>
       <c r="C2">
-        <v>-0.0165836734207772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.0009116680403509388</v>
+      </c>
+      <c r="D2">
+        <v>-0.007174583954223926</v>
+      </c>
+      <c r="E2">
+        <v>0.0002099297603533155</v>
+      </c>
+      <c r="F2">
+        <v>0.008936001020462327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03430464450788985</v>
+        <v>0.09393022127885244</v>
       </c>
       <c r="C4">
-        <v>-0.1219599008331582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.0156363041818441</v>
+      </c>
+      <c r="D4">
+        <v>-0.08301229462665985</v>
+      </c>
+      <c r="E4">
+        <v>0.02785197839704251</v>
+      </c>
+      <c r="F4">
+        <v>-0.02991456057275987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.04467124646538405</v>
+        <v>0.1566010863777127</v>
       </c>
       <c r="C6">
-        <v>-0.1071644977549637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.02495498244633433</v>
+      </c>
+      <c r="D6">
+        <v>0.02273361882987913</v>
+      </c>
+      <c r="E6">
+        <v>0.009629305482120147</v>
+      </c>
+      <c r="F6">
+        <v>-0.04632072726646642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.009688515683845548</v>
+        <v>0.06021689082209598</v>
       </c>
       <c r="C7">
-        <v>-0.07419719900531714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0008763849384721613</v>
+      </c>
+      <c r="D7">
+        <v>-0.05124575227456194</v>
+      </c>
+      <c r="E7">
+        <v>0.01114015619444372</v>
+      </c>
+      <c r="F7">
+        <v>-0.04156581443120291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.007670879763929117</v>
+        <v>0.05863116437386108</v>
       </c>
       <c r="C8">
-        <v>-0.0534793412486242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01363444737575682</v>
+      </c>
+      <c r="D8">
+        <v>-0.03184516051352163</v>
+      </c>
+      <c r="E8">
+        <v>0.0161411950339548</v>
+      </c>
+      <c r="F8">
+        <v>0.02893735224917213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02956859624014965</v>
+        <v>0.07187799879237382</v>
       </c>
       <c r="C9">
-        <v>-0.09553392382857942</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.0114970449012197</v>
+      </c>
+      <c r="D9">
+        <v>-0.08424454475217373</v>
+      </c>
+      <c r="E9">
+        <v>0.02187613131192637</v>
+      </c>
+      <c r="F9">
+        <v>-0.04567390276079356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.005477513431507204</v>
+        <v>0.09508963691797927</v>
       </c>
       <c r="C10">
-        <v>-0.04739135341178664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.01862555406111542</v>
+      </c>
+      <c r="D10">
+        <v>0.1699233307254661</v>
+      </c>
+      <c r="E10">
+        <v>-0.03804368597716877</v>
+      </c>
+      <c r="F10">
+        <v>0.0576523204291637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03200832820046253</v>
+        <v>0.08770650150050353</v>
       </c>
       <c r="C11">
-        <v>-0.1042968685021191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.01103375624784015</v>
+      </c>
+      <c r="D11">
+        <v>-0.1170406213510338</v>
+      </c>
+      <c r="E11">
+        <v>0.04670173147328195</v>
+      </c>
+      <c r="F11">
+        <v>-0.01911609723956359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02931540648125474</v>
+        <v>0.09231927808221187</v>
       </c>
       <c r="C12">
-        <v>-0.1115714380529905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.008443694766554441</v>
+      </c>
+      <c r="D12">
+        <v>-0.1289888766055962</v>
+      </c>
+      <c r="E12">
+        <v>0.0468068688396296</v>
+      </c>
+      <c r="F12">
+        <v>-0.02182489619822853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.008702927449267555</v>
+        <v>0.04346922007458089</v>
       </c>
       <c r="C13">
-        <v>-0.03989780865244762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.003873020019228912</v>
+      </c>
+      <c r="D13">
+        <v>-0.04792384788569347</v>
+      </c>
+      <c r="E13">
+        <v>-0.01245384957331708</v>
+      </c>
+      <c r="F13">
+        <v>-0.0018358151604224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01476973891512998</v>
+        <v>0.02252915583120078</v>
       </c>
       <c r="C14">
-        <v>-0.02473211658267528</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01395981812366065</v>
+      </c>
+      <c r="D14">
+        <v>-0.0331119318322232</v>
+      </c>
+      <c r="E14">
+        <v>0.01623456378394904</v>
+      </c>
+      <c r="F14">
+        <v>-0.0140887981086121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01274840489551947</v>
+        <v>0.03113634611328022</v>
       </c>
       <c r="C15">
-        <v>-0.02501843446090469</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.005119829310886594</v>
+      </c>
+      <c r="D15">
+        <v>-0.04498922825281496</v>
+      </c>
+      <c r="E15">
+        <v>0.00697873450049414</v>
+      </c>
+      <c r="F15">
+        <v>-0.02177896479864024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.02015351053701885</v>
+        <v>0.07325546898411013</v>
       </c>
       <c r="C16">
-        <v>-0.1119280486801599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.002007520731280527</v>
+      </c>
+      <c r="D16">
+        <v>-0.1261622807813895</v>
+      </c>
+      <c r="E16">
+        <v>0.06217294800452487</v>
+      </c>
+      <c r="F16">
+        <v>-0.02205040073902274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02644652541922553</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.003615317104373262</v>
+      </c>
+      <c r="D18">
+        <v>-0.02142442122322911</v>
+      </c>
+      <c r="E18">
+        <v>-0.004996928333789868</v>
+      </c>
+      <c r="F18">
+        <v>0.01092843373556006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01541822195271367</v>
+        <v>0.06008436490274551</v>
       </c>
       <c r="C20">
-        <v>-0.06404583835243247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0004352983907118945</v>
+      </c>
+      <c r="D20">
+        <v>-0.07689540996221375</v>
+      </c>
+      <c r="E20">
+        <v>0.05527344446082498</v>
+      </c>
+      <c r="F20">
+        <v>-0.02030738621855409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01185416479583742</v>
+        <v>0.03901532734644294</v>
       </c>
       <c r="C21">
-        <v>-0.02213772939019792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.006436880937018816</v>
+      </c>
+      <c r="D21">
+        <v>-0.03630098674534015</v>
+      </c>
+      <c r="E21">
+        <v>-0.006724367307509046</v>
+      </c>
+      <c r="F21">
+        <v>0.0262170631175992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.00246920134068069</v>
+        <v>0.04486035073209119</v>
       </c>
       <c r="C22">
-        <v>-0.03768623242826658</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.0005173235671177841</v>
+      </c>
+      <c r="D22">
+        <v>-0.003744330878485482</v>
+      </c>
+      <c r="E22">
+        <v>0.02923066529883</v>
+      </c>
+      <c r="F22">
+        <v>0.03083171216666708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.002483632241437049</v>
+        <v>0.04486575160651504</v>
       </c>
       <c r="C23">
-        <v>-0.03771020745241271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.0005322786186427713</v>
+      </c>
+      <c r="D23">
+        <v>-0.003882054757042518</v>
+      </c>
+      <c r="E23">
+        <v>0.02954684049306793</v>
+      </c>
+      <c r="F23">
+        <v>0.03035363637024743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0220786499895714</v>
+        <v>0.0795344685497478</v>
       </c>
       <c r="C24">
-        <v>-0.1088777745229938</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.002666085689900538</v>
+      </c>
+      <c r="D24">
+        <v>-0.1203629398370947</v>
+      </c>
+      <c r="E24">
+        <v>0.05027127103832528</v>
+      </c>
+      <c r="F24">
+        <v>-0.02235014588161619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0268554524223423</v>
+        <v>0.08504681438761502</v>
       </c>
       <c r="C25">
-        <v>-0.115623395624014</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.004902612276402509</v>
+      </c>
+      <c r="D25">
+        <v>-0.1091881852611166</v>
+      </c>
+      <c r="E25">
+        <v>0.03283748297827632</v>
+      </c>
+      <c r="F25">
+        <v>-0.02389464213195521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02381806215599626</v>
+        <v>0.05586550036853358</v>
       </c>
       <c r="C26">
-        <v>-0.04736875789282337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.01439009496803896</v>
+      </c>
+      <c r="D26">
+        <v>-0.04175343432027558</v>
+      </c>
+      <c r="E26">
+        <v>0.02703567966514777</v>
+      </c>
+      <c r="F26">
+        <v>0.01183740132862054</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.005009180773578448</v>
+        <v>0.1423035367098864</v>
       </c>
       <c r="C28">
-        <v>-0.03557464131311509</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.01810429246742841</v>
+      </c>
+      <c r="D28">
+        <v>0.2644357093629653</v>
+      </c>
+      <c r="E28">
+        <v>-0.07086936164914737</v>
+      </c>
+      <c r="F28">
+        <v>-0.007973026756393812</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01591185770845875</v>
+        <v>0.0265722565769513</v>
       </c>
       <c r="C29">
-        <v>-0.02757996300332851</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.008135471397169776</v>
+      </c>
+      <c r="D29">
+        <v>-0.03299641727593217</v>
+      </c>
+      <c r="E29">
+        <v>0.01073913695636922</v>
+      </c>
+      <c r="F29">
+        <v>0.01099381266667578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.02258895241684617</v>
+        <v>0.06173179170259478</v>
       </c>
       <c r="C30">
-        <v>-0.1237964421328759</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.004307026384362908</v>
+      </c>
+      <c r="D30">
+        <v>-0.08629517236357974</v>
+      </c>
+      <c r="E30">
+        <v>0.0201477843660728</v>
+      </c>
+      <c r="F30">
+        <v>-0.08094898484047157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02533888291558027</v>
+        <v>0.04923298885763344</v>
       </c>
       <c r="C31">
-        <v>-0.03306455162845493</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01506794369634913</v>
+      </c>
+      <c r="D31">
+        <v>-0.02544272904501651</v>
+      </c>
+      <c r="E31">
+        <v>0.02721624121466214</v>
+      </c>
+      <c r="F31">
+        <v>0.003443126510863232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.01142246226856569</v>
+        <v>0.04892035643810805</v>
       </c>
       <c r="C32">
-        <v>-0.06093765788732861</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.001237829789217319</v>
+      </c>
+      <c r="D32">
+        <v>-0.03639743018649146</v>
+      </c>
+      <c r="E32">
+        <v>0.030416021514144</v>
+      </c>
+      <c r="F32">
+        <v>-0.0002744961711776862</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02843880643145717</v>
+        <v>0.08937510729898621</v>
       </c>
       <c r="C33">
-        <v>-0.1121903042697322</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008192441276062891</v>
+      </c>
+      <c r="D33">
+        <v>-0.09814740194958368</v>
+      </c>
+      <c r="E33">
+        <v>0.04517592715152982</v>
+      </c>
+      <c r="F33">
+        <v>-0.03309028484087636</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.03061380058532134</v>
+        <v>0.06801468299386917</v>
       </c>
       <c r="C34">
-        <v>-0.09454541635574994</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01147526966597586</v>
+      </c>
+      <c r="D34">
+        <v>-0.1056496393208441</v>
+      </c>
+      <c r="E34">
+        <v>0.03467266219132259</v>
+      </c>
+      <c r="F34">
+        <v>-0.03186801418212173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.003531284499101604</v>
+        <v>0.02438442514224231</v>
       </c>
       <c r="C35">
-        <v>-0.01444521663951073</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002367103328083661</v>
+      </c>
+      <c r="D35">
+        <v>-0.01245638893953899</v>
+      </c>
+      <c r="E35">
+        <v>0.01151050897342312</v>
+      </c>
+      <c r="F35">
+        <v>-0.001280767589191574</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01171924013638629</v>
+        <v>0.02496240517132606</v>
       </c>
       <c r="C36">
-        <v>-0.02862948021995146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.00732335558973724</v>
+      </c>
+      <c r="D36">
+        <v>-0.03976433979347389</v>
+      </c>
+      <c r="E36">
+        <v>0.01578265332033003</v>
+      </c>
+      <c r="F36">
+        <v>-0.01423425644828584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.000883496457189522</v>
+        <v>0.001496227675040016</v>
       </c>
       <c r="C38">
-        <v>-0.00532419444621201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.0002225457112040762</v>
+      </c>
+      <c r="D38">
+        <v>-0.0007463262352658025</v>
+      </c>
+      <c r="E38">
+        <v>0.001152589292622668</v>
+      </c>
+      <c r="F38">
+        <v>0.0006411912525454664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.046569248080048</v>
+        <v>0.1072793341620175</v>
       </c>
       <c r="C39">
-        <v>-0.1681785122782258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.0164958138070214</v>
+      </c>
+      <c r="D39">
+        <v>-0.1526642921292997</v>
+      </c>
+      <c r="E39">
+        <v>0.05838396458538554</v>
+      </c>
+      <c r="F39">
+        <v>-0.02707296943663916</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.009321061052653313</v>
+        <v>0.03804156140308423</v>
       </c>
       <c r="C40">
-        <v>-0.009184510141712392</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.007071008759001927</v>
+      </c>
+      <c r="D40">
+        <v>-0.03266040342064645</v>
+      </c>
+      <c r="E40">
+        <v>0.002153638324506713</v>
+      </c>
+      <c r="F40">
+        <v>0.01676516805275311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01419048976946018</v>
+        <v>0.02668627701122457</v>
       </c>
       <c r="C41">
-        <v>-0.02099956380063465</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.006546109745243432</v>
+      </c>
+      <c r="D41">
+        <v>-0.01078406566685336</v>
+      </c>
+      <c r="E41">
+        <v>0.012241324868171</v>
+      </c>
+      <c r="F41">
+        <v>0.005520607165878688</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0133867457723755</v>
+        <v>0.04017574966078881</v>
       </c>
       <c r="C43">
-        <v>-0.02486932981105283</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.006592762236989342</v>
+      </c>
+      <c r="D43">
+        <v>-0.02053400148343441</v>
+      </c>
+      <c r="E43">
+        <v>0.02400485677241349</v>
+      </c>
+      <c r="F43">
+        <v>0.01136020166804906</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.03972280308883855</v>
+        <v>0.07672039746477891</v>
       </c>
       <c r="C44">
-        <v>-0.129403434051489</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.02078384443463212</v>
+      </c>
+      <c r="D44">
+        <v>-0.09840394353566785</v>
+      </c>
+      <c r="E44">
+        <v>0.06694910418175709</v>
+      </c>
+      <c r="F44">
+        <v>-0.151331729525235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.004503141485290334</v>
+        <v>0.02375178823167037</v>
       </c>
       <c r="C46">
-        <v>-0.01197646079404204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.003781157569565841</v>
+      </c>
+      <c r="D46">
+        <v>-0.01264158170809475</v>
+      </c>
+      <c r="E46">
+        <v>0.0222890912831035</v>
+      </c>
+      <c r="F46">
+        <v>0.003907092412357303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.01617204224281683</v>
+        <v>0.05071833779694222</v>
       </c>
       <c r="C47">
-        <v>-0.04067299399056912</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.003318986176185579</v>
+      </c>
+      <c r="D47">
+        <v>-0.01341913710409446</v>
+      </c>
+      <c r="E47">
+        <v>0.02309993588819514</v>
+      </c>
+      <c r="F47">
+        <v>0.03386407711546183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01418004199556971</v>
+        <v>0.0482829919653253</v>
       </c>
       <c r="C48">
-        <v>-0.04636486365005837</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.00249958754315802</v>
+      </c>
+      <c r="D48">
+        <v>-0.05106538639029886</v>
+      </c>
+      <c r="E48">
+        <v>-0.005792804991285804</v>
+      </c>
+      <c r="F48">
+        <v>-0.006857807524597175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.04415128423359193</v>
+        <v>0.2026359961943103</v>
       </c>
       <c r="C49">
-        <v>-0.20799354951126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01810632676513896</v>
+      </c>
+      <c r="D49">
+        <v>0.01161795115780792</v>
+      </c>
+      <c r="E49">
+        <v>0.03105875243709958</v>
+      </c>
+      <c r="F49">
+        <v>-0.03323755379274142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.02106859854815901</v>
+        <v>0.04919396641077347</v>
       </c>
       <c r="C50">
-        <v>-0.04063523741213516</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01112503805725643</v>
+      </c>
+      <c r="D50">
+        <v>-0.02496775094908881</v>
+      </c>
+      <c r="E50">
+        <v>0.02942739270824803</v>
+      </c>
+      <c r="F50">
+        <v>-0.007633926980678429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.001201683284452346</v>
+        <v>0.002306736559910984</v>
       </c>
       <c r="C51">
-        <v>-0.007387533103628587</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.0005875185923661432</v>
+      </c>
+      <c r="D51">
+        <v>0.002426962467966063</v>
+      </c>
+      <c r="E51">
+        <v>-0.0002055262069649713</v>
+      </c>
+      <c r="F51">
+        <v>-0.003462315027249138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03558517189478805</v>
+        <v>0.1450531582521153</v>
       </c>
       <c r="C52">
-        <v>-0.1390651884677264</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.01421286817246649</v>
+      </c>
+      <c r="D52">
+        <v>-0.04853485988654602</v>
+      </c>
+      <c r="E52">
+        <v>0.02170132131800167</v>
+      </c>
+      <c r="F52">
+        <v>-0.04409317286228609</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.03575837867289307</v>
+        <v>0.1735372373885042</v>
       </c>
       <c r="C53">
-        <v>-0.1557045137118734</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01753957839529705</v>
+      </c>
+      <c r="D53">
+        <v>-0.006703326231817075</v>
+      </c>
+      <c r="E53">
+        <v>0.03153586388804416</v>
+      </c>
+      <c r="F53">
+        <v>-0.07537909225316737</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01474680266655544</v>
+        <v>0.02206140296480554</v>
       </c>
       <c r="C54">
-        <v>-0.05012093727301754</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01236505576334269</v>
+      </c>
+      <c r="D54">
+        <v>-0.03291919209890903</v>
+      </c>
+      <c r="E54">
+        <v>0.01555707624005343</v>
+      </c>
+      <c r="F54">
+        <v>0.002411250228116953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.02706835035298494</v>
+        <v>0.1141905929779647</v>
       </c>
       <c r="C55">
-        <v>-0.08762429827094827</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01579518768841749</v>
+      </c>
+      <c r="D55">
+        <v>-0.01037105679819397</v>
+      </c>
+      <c r="E55">
+        <v>0.02833809884185286</v>
+      </c>
+      <c r="F55">
+        <v>-0.04886848824970932</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.03979637471768337</v>
+        <v>0.1774607303079101</v>
       </c>
       <c r="C56">
-        <v>-0.1552310889522216</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.01485016752809801</v>
+      </c>
+      <c r="D56">
+        <v>-0.004590537347788616</v>
+      </c>
+      <c r="E56">
+        <v>0.03868166720713515</v>
+      </c>
+      <c r="F56">
+        <v>-0.05563123421745883</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01486349528185771</v>
+        <v>0.04664979951000281</v>
       </c>
       <c r="C58">
-        <v>-0.04430198957395334</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.001084409482462347</v>
+      </c>
+      <c r="D58">
+        <v>-0.06708905986996472</v>
+      </c>
+      <c r="E58">
+        <v>0.02693146681690059</v>
+      </c>
+      <c r="F58">
+        <v>0.03918620805560905</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.01313982210404996</v>
+        <v>0.1713530459099437</v>
       </c>
       <c r="C59">
-        <v>-0.09818402344810583</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.01856422019004688</v>
+      </c>
+      <c r="D59">
+        <v>0.2214781915890364</v>
+      </c>
+      <c r="E59">
+        <v>-0.04761123390045412</v>
+      </c>
+      <c r="F59">
+        <v>0.03073620237121784</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.04242497255217277</v>
+        <v>0.2344773070648613</v>
       </c>
       <c r="C60">
-        <v>-0.2744666019174254</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.003664248328987662</v>
+      </c>
+      <c r="D60">
+        <v>-0.0407726545410064</v>
+      </c>
+      <c r="E60">
+        <v>0.01189487257307404</v>
+      </c>
+      <c r="F60">
+        <v>0.003956184866107527</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0330909753594231</v>
+        <v>0.08297504045284725</v>
       </c>
       <c r="C61">
-        <v>-0.1277997111862697</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.01230615027642823</v>
+      </c>
+      <c r="D61">
+        <v>-0.1162540789015435</v>
+      </c>
+      <c r="E61">
+        <v>0.03905488037483491</v>
+      </c>
+      <c r="F61">
+        <v>-0.01117042940102159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.04406937636022196</v>
+        <v>0.16948850304547</v>
       </c>
       <c r="C62">
-        <v>-0.1649646538726505</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.01846668698071402</v>
+      </c>
+      <c r="D62">
+        <v>-0.009968692149694395</v>
+      </c>
+      <c r="E62">
+        <v>0.03590705300411205</v>
+      </c>
+      <c r="F62">
+        <v>-0.0383927675789676</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01395411686712885</v>
+        <v>0.04341513327326853</v>
       </c>
       <c r="C63">
-        <v>-0.05612942864301918</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002381598263705629</v>
+      </c>
+      <c r="D63">
+        <v>-0.05705580040136031</v>
+      </c>
+      <c r="E63">
+        <v>0.02041397254750031</v>
+      </c>
+      <c r="F63">
+        <v>-0.00434908302391491</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.02638308170219531</v>
+        <v>0.1105796196034534</v>
       </c>
       <c r="C64">
-        <v>-0.09899547232642672</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01134304513501634</v>
+      </c>
+      <c r="D64">
+        <v>-0.0417456000478983</v>
+      </c>
+      <c r="E64">
+        <v>0.02081811314005379</v>
+      </c>
+      <c r="F64">
+        <v>-0.02565740046302147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.04715458443240839</v>
+        <v>0.1473417296033394</v>
       </c>
       <c r="C65">
-        <v>-0.1067725875185121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03163736529852752</v>
+      </c>
+      <c r="D65">
+        <v>0.04138231643935653</v>
+      </c>
+      <c r="E65">
+        <v>0.0008126367100317376</v>
+      </c>
+      <c r="F65">
+        <v>-0.03757911471910081</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04712351855075153</v>
+        <v>0.1278331583780392</v>
       </c>
       <c r="C66">
-        <v>-0.1995809541504567</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.01433215656824548</v>
+      </c>
+      <c r="D66">
+        <v>-0.1419291840230684</v>
+      </c>
+      <c r="E66">
+        <v>0.0667608397850092</v>
+      </c>
+      <c r="F66">
+        <v>-0.02944290210602596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01605879585180376</v>
+        <v>0.06327124509333204</v>
       </c>
       <c r="C67">
-        <v>-0.06934057629754876</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.002797621468926215</v>
+      </c>
+      <c r="D67">
+        <v>-0.05593017618736137</v>
+      </c>
+      <c r="E67">
+        <v>0.01790369453151216</v>
+      </c>
+      <c r="F67">
+        <v>0.032347939526576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01601935712377207</v>
+        <v>0.1169380912827163</v>
       </c>
       <c r="C68">
-        <v>-0.03255036659770693</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.02804145049854328</v>
+      </c>
+      <c r="D68">
+        <v>0.2593542360567955</v>
+      </c>
+      <c r="E68">
+        <v>-0.08742753046475446</v>
+      </c>
+      <c r="F68">
+        <v>-0.005211242564289087</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.009986734530881499</v>
+        <v>0.03923177286428019</v>
       </c>
       <c r="C69">
-        <v>-0.03197570029853523</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.0009580115571285828</v>
+      </c>
+      <c r="D69">
+        <v>-0.008270706481784625</v>
+      </c>
+      <c r="E69">
+        <v>0.02356282392636287</v>
+      </c>
+      <c r="F69">
+        <v>0.001002995009209801</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0007408501775471707</v>
+        <v>0.06246855111555127</v>
       </c>
       <c r="C70">
-        <v>-0.03501538376035436</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.02884472219273152</v>
+      </c>
+      <c r="D70">
+        <v>-0.0295208074050232</v>
+      </c>
+      <c r="E70">
+        <v>-0.04246137025617346</v>
+      </c>
+      <c r="F70">
+        <v>0.1908008564394537</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.02025219961973448</v>
+        <v>0.1363376727576165</v>
       </c>
       <c r="C71">
-        <v>-0.03916049254372053</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.03272422765840794</v>
+      </c>
+      <c r="D71">
+        <v>0.2731556468267795</v>
+      </c>
+      <c r="E71">
+        <v>-0.09722994614453914</v>
+      </c>
+      <c r="F71">
+        <v>-0.01031851982923549</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.04086876414778541</v>
+        <v>0.1416405591024739</v>
       </c>
       <c r="C72">
-        <v>-0.118280978382206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.02525196550092199</v>
+      </c>
+      <c r="D72">
+        <v>-0.0007880378997014482</v>
+      </c>
+      <c r="E72">
+        <v>0.03978071359458031</v>
+      </c>
+      <c r="F72">
+        <v>-0.03496500115714159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.0450076303601525</v>
+        <v>0.201000541917358</v>
       </c>
       <c r="C73">
-        <v>-0.2038676153260758</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01209652774907008</v>
+      </c>
+      <c r="D73">
+        <v>-0.01582419866142356</v>
+      </c>
+      <c r="E73">
+        <v>0.06412488634417979</v>
+      </c>
+      <c r="F73">
+        <v>-0.03688640650333559</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.02607196893240382</v>
+        <v>0.09465457721944215</v>
       </c>
       <c r="C74">
-        <v>-0.1130982686044446</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.0125811953929015</v>
+      </c>
+      <c r="D74">
+        <v>-0.01879767407502858</v>
+      </c>
+      <c r="E74">
+        <v>0.04581951308218806</v>
+      </c>
+      <c r="F74">
+        <v>-0.05761155550887462</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04871674977137876</v>
+        <v>0.1285456657426876</v>
       </c>
       <c r="C75">
-        <v>-0.1325449606966738</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02693049452612084</v>
+      </c>
+      <c r="D75">
+        <v>-0.03197016446584261</v>
+      </c>
+      <c r="E75">
+        <v>0.05990907028786482</v>
+      </c>
+      <c r="F75">
+        <v>-0.02031214571918694</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.001103933006787996</v>
+        <v>0.002253599828951438</v>
       </c>
       <c r="C76">
-        <v>-0.008330521451660699</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.0005897719595394031</v>
+      </c>
+      <c r="D76">
+        <v>0.001478059745472291</v>
+      </c>
+      <c r="E76">
+        <v>0.0003293340523597638</v>
+      </c>
+      <c r="F76">
+        <v>-0.003376363979386345</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02784314808873738</v>
+        <v>0.08019041925547095</v>
       </c>
       <c r="C77">
-        <v>-0.101072839429259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.008127917118620223</v>
+      </c>
+      <c r="D77">
+        <v>-0.1193442977623945</v>
+      </c>
+      <c r="E77">
+        <v>0.04194120254241705</v>
+      </c>
+      <c r="F77">
+        <v>-0.02291945969088076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.06461164363821809</v>
+        <v>0.1032902368514854</v>
       </c>
       <c r="C78">
-        <v>-0.1103982976463701</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03960597718783129</v>
+      </c>
+      <c r="D78">
+        <v>-0.1146181763082107</v>
+      </c>
+      <c r="E78">
+        <v>0.07790380742280362</v>
+      </c>
+      <c r="F78">
+        <v>-0.04864338049267599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.04300674533827076</v>
+        <v>0.1640726346351576</v>
       </c>
       <c r="C79">
-        <v>-0.1415065577853308</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02098209758968826</v>
+      </c>
+      <c r="D79">
+        <v>-0.01889052963758885</v>
+      </c>
+      <c r="E79">
+        <v>0.04889566941370135</v>
+      </c>
+      <c r="F79">
+        <v>-0.01475085617635305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.006543521734490859</v>
+        <v>0.08107349920656257</v>
       </c>
       <c r="C80">
-        <v>-0.09418715877351265</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.00109734078829476</v>
+      </c>
+      <c r="D80">
+        <v>-0.05727489733061662</v>
+      </c>
+      <c r="E80">
+        <v>0.03654259463155017</v>
+      </c>
+      <c r="F80">
+        <v>0.02717918588036455</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.04783216433495605</v>
+        <v>0.1229018006418408</v>
       </c>
       <c r="C81">
-        <v>-0.1530615159703882</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03095635205952417</v>
+      </c>
+      <c r="D81">
+        <v>-0.01668398912836885</v>
+      </c>
+      <c r="E81">
+        <v>0.05909202382836855</v>
+      </c>
+      <c r="F81">
+        <v>-0.01919408342265654</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.0426571535144351</v>
+        <v>0.1646679164554554</v>
       </c>
       <c r="C82">
-        <v>-0.1699705978668876</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.0232612259769724</v>
+      </c>
+      <c r="D82">
+        <v>-0.006988591506167554</v>
+      </c>
+      <c r="E82">
+        <v>0.02967959833510199</v>
+      </c>
+      <c r="F82">
+        <v>-0.08083427404253936</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.01756309216780447</v>
+        <v>0.06170350922087331</v>
       </c>
       <c r="C83">
-        <v>-0.07939958748190341</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.0031966310647855</v>
+      </c>
+      <c r="D83">
+        <v>-0.0491948454101156</v>
+      </c>
+      <c r="E83">
+        <v>0.005573056553012654</v>
+      </c>
+      <c r="F83">
+        <v>0.03342495790803724</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02606282177985434</v>
+        <v>0.05842773500393763</v>
       </c>
       <c r="C84">
-        <v>-0.07130066310738099</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.0108724904184369</v>
+      </c>
+      <c r="D84">
+        <v>-0.06528893123578224</v>
+      </c>
+      <c r="E84">
+        <v>0.006666460812821081</v>
+      </c>
+      <c r="F84">
+        <v>-0.007174355236588188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.0427927171485317</v>
+        <v>0.1380027704124159</v>
       </c>
       <c r="C85">
-        <v>-0.1178494940872744</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.026756086454675</v>
+      </c>
+      <c r="D85">
+        <v>-0.01220500946923574</v>
+      </c>
+      <c r="E85">
+        <v>0.03941533637852551</v>
+      </c>
+      <c r="F85">
+        <v>-0.04811212385157432</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.02443012723220479</v>
+        <v>0.09618207520143553</v>
       </c>
       <c r="C86">
-        <v>-0.1170521444896707</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.006965132665577382</v>
+      </c>
+      <c r="D86">
+        <v>-0.03799103214924673</v>
+      </c>
+      <c r="E86">
+        <v>0.2068691120857199</v>
+      </c>
+      <c r="F86">
+        <v>0.9104742247229409</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.04727103751530549</v>
+        <v>0.09578014711323875</v>
       </c>
       <c r="C87">
-        <v>-0.1088888892276677</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.02167633768069665</v>
+      </c>
+      <c r="D87">
+        <v>-0.09190138472507448</v>
+      </c>
+      <c r="E87">
+        <v>-0.0530863309149597</v>
+      </c>
+      <c r="F87">
+        <v>-0.05352884157147338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01586833642384988</v>
+        <v>0.06078110457641885</v>
       </c>
       <c r="C88">
-        <v>-0.05681270876486747</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.002389467500721159</v>
+      </c>
+      <c r="D88">
+        <v>-0.05055431561149788</v>
+      </c>
+      <c r="E88">
+        <v>0.02507565954784837</v>
+      </c>
+      <c r="F88">
+        <v>-0.01376071999418512</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.001693201213435029</v>
+        <v>0.1347119539205389</v>
       </c>
       <c r="C89">
-        <v>-0.06653440692796744</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.01026691113822748</v>
+      </c>
+      <c r="D89">
+        <v>0.2514250462752838</v>
+      </c>
+      <c r="E89">
+        <v>-0.08998182700782351</v>
+      </c>
+      <c r="F89">
+        <v>0.004235542407777635</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.01971991401746615</v>
+        <v>0.148371913680519</v>
       </c>
       <c r="C90">
-        <v>-0.04290460875942754</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.02857100838333069</v>
+      </c>
+      <c r="D90">
+        <v>0.265770475684414</v>
+      </c>
+      <c r="E90">
+        <v>-0.1113719251529043</v>
+      </c>
+      <c r="F90">
+        <v>0.002560490185481528</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.02573764956749878</v>
+        <v>0.1196757372071089</v>
       </c>
       <c r="C91">
-        <v>-0.09224073443371027</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01747542244010535</v>
+      </c>
+      <c r="D91">
+        <v>0.01037682067522329</v>
+      </c>
+      <c r="E91">
+        <v>0.05682752246038721</v>
+      </c>
+      <c r="F91">
+        <v>0.001685167317124361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.0008763574325942461</v>
+        <v>0.1483028350378873</v>
       </c>
       <c r="C92">
-        <v>-0.06201409958455802</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.02052371301240087</v>
+      </c>
+      <c r="D92">
+        <v>0.2915108950354318</v>
+      </c>
+      <c r="E92">
+        <v>-0.1034129939729102</v>
+      </c>
+      <c r="F92">
+        <v>0.01395903202491934</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.01412263444014691</v>
+        <v>0.1515113431887327</v>
       </c>
       <c r="C93">
-        <v>-0.04748069177451456</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.02457606145389669</v>
+      </c>
+      <c r="D93">
+        <v>0.2655692013169516</v>
+      </c>
+      <c r="E93">
+        <v>-0.0785665153642463</v>
+      </c>
+      <c r="F93">
+        <v>-0.002238733978711429</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.049958787013034</v>
+        <v>0.1318141800823058</v>
       </c>
       <c r="C94">
-        <v>-0.1573531142793421</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02394557775921628</v>
+      </c>
+      <c r="D94">
+        <v>-0.0443514787648761</v>
+      </c>
+      <c r="E94">
+        <v>0.05881678881071068</v>
+      </c>
+      <c r="F94">
+        <v>-0.03737903757497019</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.04114318416815165</v>
+        <v>0.1257093433654979</v>
       </c>
       <c r="C95">
-        <v>-0.132669994221236</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.004418615874105145</v>
+      </c>
+      <c r="D95">
+        <v>-0.0925580083378406</v>
+      </c>
+      <c r="E95">
+        <v>0.04862980545352417</v>
+      </c>
+      <c r="F95">
+        <v>0.0118937412430655</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.965690442888803</v>
+        <v>0.100776986196619</v>
       </c>
       <c r="C96">
-        <v>-0.2417566438181911</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.9884263298859501</v>
+      </c>
+      <c r="D96">
+        <v>0.03888957237138679</v>
+      </c>
+      <c r="E96">
+        <v>0.05601822142444862</v>
+      </c>
+      <c r="F96">
+        <v>-0.04305003365681525</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.01864279534386327</v>
+        <v>0.1904874015193258</v>
       </c>
       <c r="C97">
-        <v>-0.177466537356568</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.009264247464075854</v>
+      </c>
+      <c r="D97">
+        <v>0.01865829018394258</v>
+      </c>
+      <c r="E97">
+        <v>0.01451519033648355</v>
+      </c>
+      <c r="F97">
+        <v>0.08351123450840915</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.03693481706841203</v>
+        <v>0.2062093022958094</v>
       </c>
       <c r="C98">
-        <v>-0.1990712256930673</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.007273589869464453</v>
+      </c>
+      <c r="D98">
+        <v>-0.006514033153265398</v>
+      </c>
+      <c r="E98">
+        <v>-0.08819146974034651</v>
+      </c>
+      <c r="F98">
+        <v>0.09019395025958774</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.004281450971483908</v>
+        <v>0.05555512184960253</v>
       </c>
       <c r="C99">
-        <v>-0.05528218350556243</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.004612781118408738</v>
+      </c>
+      <c r="D99">
+        <v>-0.03808779825399283</v>
+      </c>
+      <c r="E99">
+        <v>0.02349673279366969</v>
+      </c>
+      <c r="F99">
+        <v>6.941231904271607e-06</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.002627233919504065</v>
+        <v>0.1240163936730414</v>
       </c>
       <c r="C100">
-        <v>-0.1332291978792587</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.05313793385671368</v>
+      </c>
+      <c r="D100">
+        <v>-0.3495738930632855</v>
+      </c>
+      <c r="E100">
+        <v>-0.8877793842644652</v>
+      </c>
+      <c r="F100">
+        <v>0.1336702732460634</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01594494636285975</v>
+        <v>0.02649530349156187</v>
       </c>
       <c r="C101">
-        <v>-0.02753593691735502</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.008143195119737</v>
+      </c>
+      <c r="D101">
+        <v>-0.03270391504756193</v>
+      </c>
+      <c r="E101">
+        <v>0.01018204037582827</v>
+      </c>
+      <c r="F101">
+        <v>0.01222926724463519</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
